--- a/demo-fast-excel/src/main/resources/demo.xlsx
+++ b/demo-fast-excel/src/main/resources/demo.xlsx
@@ -21,21 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
-    <t>显示名称</t>
-  </si>
-  <si>
-    <t>英文名称</t>
-  </si>
-  <si>
-    <t>通用名称</t>
-  </si>
-  <si>
-    <t>中文名称</t>
-  </si>
-  <si>
-    <t>成分信息</t>
-  </si>
-  <si>
     <t>适应症</t>
   </si>
   <si>
@@ -182,6 +167,26 @@
   </si>
   <si>
     <t>2020-12-30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -573,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,171 +589,171 @@
   <sheetData>
     <row r="1" spans="1:31" ht="75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="L2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="X2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Y2" t="s">
         <v>41</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Z2" t="s">
         <v>42</v>
       </c>
-      <c r="U2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="X2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">

--- a/demo-fast-excel/src/main/resources/demo.xlsx
+++ b/demo-fast-excel/src/main/resources/demo.xlsx
@@ -21,6 +21,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
+    <t>显示名称</t>
+  </si>
+  <si>
+    <t>英文名称</t>
+  </si>
+  <si>
+    <t>通用名称</t>
+  </si>
+  <si>
+    <t>中文名称</t>
+  </si>
+  <si>
+    <t>成分信息</t>
+  </si>
+  <si>
     <t>适应症</t>
   </si>
   <si>
@@ -167,26 +182,6 @@
   </si>
   <si>
     <t>2020-12-30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成份</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -578,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,171 +584,171 @@
   <sheetData>
     <row r="1" spans="1:31" ht="75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="X2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Z2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
